--- a/fp_borrower_user_details.xlsx
+++ b/fp_borrower_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>Id</t>
   </si>
@@ -251,253 +251,277 @@
     <t>pro_created_by</t>
   </si>
   <si>
-    <t>parthiban</t>
-  </si>
-  <si>
-    <t>parthiban@gmail.com</t>
-  </si>
-  <si>
-    <t>U72900TN2019PTC129145</t>
-  </si>
-  <si>
-    <t>SQUAIRCLE DIGITAL PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>ASDFG3456Z</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>11/2, 1ST MAIN ROAD, P M SALAI, BABY NAGAR, VELACHERY CHENNAI Chennai TN 600042 IN</t>
-  </si>
-  <si>
-    <t>Testing worked</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>2023-05-31 10:33:17</t>
-  </si>
-  <si>
-    <t>2023-06-12 13:46:35</t>
-  </si>
-  <si>
-    <t>BBB+</t>
+    <t>vikram</t>
+  </si>
+  <si>
+    <t>vikram@finn.in</t>
+  </si>
+  <si>
+    <t>U72900TN2020PTC137262</t>
+  </si>
+  <si>
+    <t>vikram pvt ltd</t>
+  </si>
+  <si>
+    <t>ABCTY1234W</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>2023-05-29 09:03:34</t>
+  </si>
+  <si>
+    <t>2023-06-20 16:56:22</t>
+  </si>
+  <si>
+    <t>AA</t>
   </si>
   <si>
     <t>incomplete</t>
   </si>
   <si>
-    <t>11/2, 1ST MAIN ROAD, P M SALAI,</t>
-  </si>
-  <si>
-    <t>BABY NAGAR, VELACHERY</t>
-  </si>
-  <si>
-    <t>CHENNAI</t>
-  </si>
-  <si>
-    <t>TAMIL NADU</t>
-  </si>
-  <si>
-    <t>Private Limited Indian Non-Government Company</t>
-  </si>
-  <si>
-    <t>2022-09-30</t>
-  </si>
-  <si>
-    <t>Unlisted</t>
-  </si>
-  <si>
-    <t>2022-03-31</t>
-  </si>
-  <si>
-    <t>saravananv2011@gmail.com</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>2019-05-07</t>
-  </si>
-  <si>
-    <t>FINNUPXLRTBID245</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>jagan</t>
-  </si>
-  <si>
-    <t>jagan.vijay.104@gmail.com</t>
-  </si>
-  <si>
-    <t>U72900TN2020PTC137263</t>
-  </si>
-  <si>
-    <t>seven star</t>
-  </si>
-  <si>
-    <t>BBWPS3255D</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:19:43</t>
-  </si>
-  <si>
-    <t>2023-06-15 13:54:13</t>
-  </si>
-  <si>
-    <t>BB+</t>
-  </si>
-  <si>
-    <t>1/67 middle street</t>
-  </si>
-  <si>
-    <t>FINNUPXLRTBID246</t>
-  </si>
-  <si>
-    <t>Inba</t>
-  </si>
-  <si>
-    <t>inba@gmail.com</t>
-  </si>
-  <si>
-    <t>U72900TN2020PTC137233</t>
-  </si>
-  <si>
-    <t>Inba Co</t>
-  </si>
-  <si>
-    <t>BBWPS3255S</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Testing&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;Testing&amp;#160;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>2023-06-03 17:22:04</t>
-  </si>
-  <si>
-    <t>2023-06-15 14:17:52</t>
-  </si>
-  <si>
-    <t>1/67 middle street  velachery</t>
-  </si>
-  <si>
-    <t>FINNUPXLRTBID247</t>
-  </si>
-  <si>
-    <t>JAGAN</t>
-  </si>
-  <si>
-    <t>jagan@gmail.com</t>
-  </si>
-  <si>
-    <t>U72900TN2022PTC153168</t>
-  </si>
-  <si>
-    <t>GRAMOSOFT PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>BBWPS3255M</t>
-  </si>
-  <si>
-    <t>TESTING</t>
-  </si>
-  <si>
-    <t>tESTING</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>2023-06-07 10:39:12</t>
-  </si>
-  <si>
-    <t>2023-06-15 14:12:28</t>
-  </si>
-  <si>
-    <t>57, BALAJI NAGAR THUNDALAM, THIRUVERKADU CHENNAI Chennai TN 600077 IN</t>
-  </si>
-  <si>
-    <t>57, BALAJI NAGAR</t>
-  </si>
-  <si>
-    <t>THUNDALAM, THIRUVERKADU</t>
-  </si>
-  <si>
-    <t>rajesh57.cse@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-06-20</t>
-  </si>
-  <si>
-    <t>sangavi</t>
-  </si>
-  <si>
-    <t>sangavi@gmail.com</t>
-  </si>
-  <si>
-    <t>ACB-1364</t>
-  </si>
-  <si>
-    <t>SAROJ DIAGNOSTIC LABORATORY LLP</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>2023-06-16 20:36:29</t>
-  </si>
-  <si>
-    <t>2023-06-16 20:38:07</t>
-  </si>
-  <si>
-    <t>ROOM NO 24/2245/2246 PALAL ARCADE,2ND FLOOR Kakkanad Ernakulam Ernakulam Kerala 682030</t>
-  </si>
-  <si>
-    <t>PARAVUR</t>
-  </si>
-  <si>
-    <t>KERALA</t>
-  </si>
-  <si>
-    <t>Limited Liability Partnership</t>
-  </si>
-  <si>
-    <t>admin@sarojlab.com</t>
-  </si>
-  <si>
-    <t>2023-05-12</t>
-  </si>
-  <si>
-    <t>jagan222@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-17 10:27:01</t>
-  </si>
-  <si>
-    <t>2023-06-17 10:44:36</t>
-  </si>
-  <si>
-    <t>jaganuser</t>
-  </si>
-  <si>
-    <t>jaganuser@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-17 10:37:00</t>
-  </si>
-  <si>
-    <t>2023-06-17 11:17:16</t>
+    <t>vinoth</t>
+  </si>
+  <si>
+    <t>vinothomas@finn.in</t>
+  </si>
+  <si>
+    <t>vinoth company</t>
+  </si>
+  <si>
+    <t>2023-06-15 17:19:49</t>
+  </si>
+  <si>
+    <t>vinothavinash</t>
+  </si>
+  <si>
+    <t>vinothavinash@finn.in</t>
+  </si>
+  <si>
+    <t>vinothavinash company</t>
+  </si>
+  <si>
+    <t>2023-06-15 17:22:34</t>
+  </si>
+  <si>
+    <t>2023-06-22 16:02:40</t>
+  </si>
+  <si>
+    <t>vin@finn.in</t>
+  </si>
+  <si>
+    <t>VINN company</t>
+  </si>
+  <si>
+    <t>2023-06-15 17:28:45</t>
+  </si>
+  <si>
+    <t>vinothtest</t>
+  </si>
+  <si>
+    <t>testvinoth@gmail.com</t>
+  </si>
+  <si>
+    <t>test vinoth</t>
+  </si>
+  <si>
+    <t>2023-06-20 11:16:40</t>
+  </si>
+  <si>
+    <t>vinothtest1</t>
+  </si>
+  <si>
+    <t>vinothtest1@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-20 11:26:48</t>
+  </si>
+  <si>
+    <t>vinothtest12</t>
+  </si>
+  <si>
+    <t>vinothtest12@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-20 11:30:20</t>
+  </si>
+  <si>
+    <t>vinoth1</t>
+  </si>
+  <si>
+    <t>vinoth1@gmail.com</t>
+  </si>
+  <si>
+    <t>vinoth1 pvt ltd</t>
+  </si>
+  <si>
+    <t>2023-06-20 11:56:52</t>
+  </si>
+  <si>
+    <t>vinoth1234</t>
+  </si>
+  <si>
+    <t>vinoth1234@gmail.com</t>
+  </si>
+  <si>
+    <t>vinoth1234 pvt ltd</t>
+  </si>
+  <si>
+    <t>2023-06-20 12:01:08</t>
+  </si>
+  <si>
+    <t>vinoth12345</t>
+  </si>
+  <si>
+    <t>vinoth12345@gmail.com</t>
+  </si>
+  <si>
+    <t>vinoth12345 pvt ltd</t>
+  </si>
+  <si>
+    <t>2023-06-20 12:02:18</t>
+  </si>
+  <si>
+    <t>vinothtesting</t>
+  </si>
+  <si>
+    <t>vinothtesting@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-20 12:04:50</t>
+  </si>
+  <si>
+    <t>prathi</t>
+  </si>
+  <si>
+    <t>prathi@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-20 12:08:35</t>
+  </si>
+  <si>
+    <t>prathiban</t>
+  </si>
+  <si>
+    <t>prathiban@gmail.com</t>
+  </si>
+  <si>
+    <t>prathiban co</t>
+  </si>
+  <si>
+    <t>2023-06-20 12:10:53</t>
+  </si>
+  <si>
+    <t>rahulvino</t>
+  </si>
+  <si>
+    <t>rahulvino@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-20 12:20:28</t>
+  </si>
+  <si>
+    <t>soban</t>
+  </si>
+  <si>
+    <t>soban@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-20 12:31:25</t>
+  </si>
+  <si>
+    <t>2023-06-20 12:51:36</t>
+  </si>
+  <si>
+    <t>sswdsdsd</t>
+  </si>
+  <si>
+    <t>dsdsdsdsds</t>
+  </si>
+  <si>
+    <t>sasasasas</t>
+  </si>
+  <si>
+    <t>2023-06-20 12:35:21</t>
+  </si>
+  <si>
+    <t>2023-06-20 12:51:27</t>
+  </si>
+  <si>
+    <t>vinothsek</t>
+  </si>
+  <si>
+    <t>2023-06-20 12:50:51</t>
+  </si>
+  <si>
+    <t>2023-06-20 12:51:12</t>
+  </si>
+  <si>
+    <t>vinothravi</t>
+  </si>
+  <si>
+    <t>vinothravi@gmail.com</t>
+  </si>
+  <si>
+    <t>test test test test&amp;#160;</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2023-06-20 13:02:36</t>
+  </si>
+  <si>
+    <t>AA-</t>
+  </si>
+  <si>
+    <t>vinothanbu</t>
+  </si>
+  <si>
+    <t>vinothanbu@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-20 13:03:49</t>
+  </si>
+  <si>
+    <t>anbu</t>
+  </si>
+  <si>
+    <t>anbu@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-20 13:05:58</t>
+  </si>
+  <si>
+    <t>2023-06-20 16:56:10</t>
+  </si>
+  <si>
+    <t>vinoth@finn.in</t>
+  </si>
+  <si>
+    <t>2023-06-21 10:43:22</t>
+  </si>
+  <si>
+    <t>2023-06-21 17:24:00</t>
+  </si>
+  <si>
+    <t>vinothsek@finn.in</t>
+  </si>
+  <si>
+    <t>2023-06-21 17:26:03</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:16:03</t>
+  </si>
+  <si>
+    <t>vinothss@finn.in</t>
+  </si>
+  <si>
+    <t>2023-06-22 17:37:37</t>
+  </si>
+  <si>
+    <t>2023-06-22 17:38:42</t>
   </si>
 </sst>
 </file>
@@ -837,7 +861,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BZ8"/>
+  <dimension ref="A1:BZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,16 +1107,16 @@
     </row>
     <row r="2" spans="1:78">
       <c r="A2">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="B2">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
         <v>78</v>
       </c>
       <c r="D2">
-        <v>6381286277</v>
+        <v>8798099809</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -1113,17 +1137,13 @@
       </c>
       <c r="L2"/>
       <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>84</v>
-      </c>
+      <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2">
@@ -1131,26 +1151,24 @@
       </c>
       <c r="T2"/>
       <c r="U2">
-        <v>600042</v>
+        <v>0</v>
       </c>
       <c r="V2"/>
-      <c r="W2" t="s">
+      <c r="W2"/>
+      <c r="X2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2">
+        <v>2016</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" t="s">
         <v>85</v>
-      </c>
-      <c r="X2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2">
-        <v>2010</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>88</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1158,7 +1176,7 @@
       <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AG2"/>
       <c r="AH2"/>
@@ -1175,159 +1193,103 @@
       </c>
       <c r="AR2"/>
       <c r="AS2">
-        <v>100000000</v>
+        <v>155666666</v>
       </c>
       <c r="AT2">
-        <v>100000</v>
+        <v>12311333333</v>
       </c>
       <c r="AU2"/>
       <c r="AV2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AW2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX2">
-        <v>100000</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>1000000</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
       <c r="BA2"/>
       <c r="BB2"/>
-      <c r="BC2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>96</v>
-      </c>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
       <c r="BJ2"/>
-      <c r="BK2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>99</v>
-      </c>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
       <c r="BN2">
         <v>600042</v>
       </c>
-      <c r="BO2" t="s">
-        <v>100</v>
-      </c>
+      <c r="BO2"/>
       <c r="BP2"/>
       <c r="BQ2"/>
-      <c r="BR2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>101</v>
-      </c>
+      <c r="BR2"/>
+      <c r="BS2"/>
       <c r="BT2"/>
       <c r="BU2"/>
       <c r="BV2"/>
       <c r="BW2"/>
-      <c r="BX2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>103</v>
-      </c>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
     </row>
     <row r="3" spans="1:78">
       <c r="A3">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="B3">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>9876543210</v>
+        <v>9594992897</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>106</v>
-      </c>
+      <c r="G3"/>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3" t="s">
-        <v>108</v>
-      </c>
+      <c r="K3"/>
       <c r="L3"/>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3">
-        <v>7</v>
-      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
-      <c r="S3">
-        <v>4</v>
-      </c>
+      <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
-      <c r="W3" t="s">
-        <v>83</v>
-      </c>
+      <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3">
         <v>1</v>
       </c>
       <c r="AA3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>110</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AB3"/>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3"/>
       <c r="AE3"/>
-      <c r="AF3" t="s">
-        <v>111</v>
-      </c>
+      <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
@@ -1343,26 +1305,24 @@
       </c>
       <c r="AR3"/>
       <c r="AS3">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="AU3"/>
       <c r="AV3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AX3"/>
       <c r="AY3"/>
       <c r="AZ3"/>
       <c r="BA3"/>
       <c r="BB3"/>
-      <c r="BC3" t="s">
-        <v>112</v>
-      </c>
+      <c r="BC3"/>
       <c r="BD3"/>
       <c r="BE3"/>
       <c r="BF3"/>
@@ -1374,7 +1334,7 @@
       <c r="BL3"/>
       <c r="BM3"/>
       <c r="BN3">
-        <v>600042</v>
+        <v>0</v>
       </c>
       <c r="BO3"/>
       <c r="BP3"/>
@@ -1385,89 +1345,65 @@
       <c r="BU3"/>
       <c r="BV3"/>
       <c r="BW3"/>
-      <c r="BX3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>113</v>
-      </c>
+      <c r="BX3"/>
+      <c r="BY3"/>
       <c r="BZ3"/>
     </row>
     <row r="4" spans="1:78">
       <c r="A4">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="B4">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>9876543267</v>
+        <v>9597902893</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>116</v>
-      </c>
+      <c r="G4"/>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4" t="s">
-        <v>118</v>
-      </c>
+      <c r="K4"/>
       <c r="L4"/>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4">
-        <v>6</v>
-      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
-      <c r="S4">
-        <v>4</v>
-      </c>
+      <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
-      <c r="W4" t="s">
-        <v>120</v>
-      </c>
-      <c r="X4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y4">
-        <v>2021</v>
-      </c>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
       <c r="Z4">
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="AB4" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4"/>
       <c r="AE4"/>
-      <c r="AF4" t="s">
-        <v>89</v>
-      </c>
+      <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
       <c r="AI4"/>
@@ -1490,19 +1426,17 @@
       </c>
       <c r="AU4"/>
       <c r="AV4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AX4"/>
       <c r="AY4"/>
       <c r="AZ4"/>
       <c r="BA4"/>
       <c r="BB4"/>
-      <c r="BC4" t="s">
-        <v>124</v>
-      </c>
+      <c r="BC4"/>
       <c r="BD4"/>
       <c r="BE4"/>
       <c r="BF4"/>
@@ -1514,7 +1448,7 @@
       <c r="BL4"/>
       <c r="BM4"/>
       <c r="BN4">
-        <v>600042</v>
+        <v>0</v>
       </c>
       <c r="BO4"/>
       <c r="BP4"/>
@@ -1525,54 +1459,40 @@
       <c r="BU4"/>
       <c r="BV4"/>
       <c r="BW4"/>
-      <c r="BX4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>125</v>
-      </c>
+      <c r="BX4"/>
+      <c r="BY4"/>
       <c r="BZ4"/>
     </row>
     <row r="5" spans="1:78">
       <c r="A5">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="B5">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>9710963222</v>
+        <v>8798879887</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
+      <c r="G5"/>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5" t="s">
-        <v>130</v>
-      </c>
+      <c r="K5"/>
       <c r="L5"/>
-      <c r="M5">
-        <v>6</v>
-      </c>
-      <c r="N5" t="s">
-        <v>131</v>
-      </c>
-      <c r="O5">
-        <v>13</v>
-      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1580,32 +1500,22 @@
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
-      <c r="W5" t="s">
-        <v>132</v>
-      </c>
-      <c r="X5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y5">
-        <v>2022</v>
-      </c>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
       <c r="Z5">
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>135</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB5"/>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5"/>
       <c r="AE5"/>
-      <c r="AF5" t="s">
-        <v>111</v>
-      </c>
+      <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
       <c r="AI5"/>
@@ -1621,111 +1531,79 @@
       </c>
       <c r="AR5"/>
       <c r="AS5">
-        <v>22222</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>22222222</v>
+        <v>0</v>
       </c>
       <c r="AU5"/>
       <c r="AV5">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AW5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX5">
-        <v>1000000</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>1000000</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
       <c r="BA5"/>
       <c r="BB5"/>
-      <c r="BC5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>95</v>
-      </c>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
       <c r="BI5"/>
       <c r="BJ5"/>
-      <c r="BK5" t="s">
-        <v>97</v>
-      </c>
+      <c r="BK5"/>
       <c r="BL5"/>
-      <c r="BM5" t="s">
-        <v>139</v>
-      </c>
+      <c r="BM5"/>
       <c r="BN5">
-        <v>600077</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BO5"/>
       <c r="BP5"/>
       <c r="BQ5"/>
-      <c r="BR5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>140</v>
-      </c>
+      <c r="BR5"/>
+      <c r="BS5"/>
       <c r="BT5"/>
       <c r="BU5"/>
       <c r="BV5"/>
       <c r="BW5"/>
       <c r="BX5"/>
       <c r="BY5"/>
-      <c r="BZ5" t="s">
-        <v>103</v>
-      </c>
+      <c r="BZ5"/>
     </row>
     <row r="6" spans="1:78">
       <c r="A6">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="B6">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>7777777777</v>
+        <v>8798879898</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>143</v>
-      </c>
+      <c r="G6"/>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
@@ -1737,21 +1615,15 @@
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
-      <c r="X6" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y6">
-        <v>2023</v>
-      </c>
+      <c r="X6"/>
+      <c r="Y6"/>
       <c r="Z6">
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>147</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AB6"/>
       <c r="AC6">
         <v>0</v>
       </c>
@@ -1780,92 +1652,72 @@
       </c>
       <c r="AU6"/>
       <c r="AV6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AX6"/>
-      <c r="AY6">
-        <v>0</v>
-      </c>
+      <c r="AY6"/>
       <c r="AZ6"/>
       <c r="BA6"/>
       <c r="BB6"/>
-      <c r="BC6" t="s">
-        <v>148</v>
-      </c>
+      <c r="BC6"/>
       <c r="BD6"/>
       <c r="BE6"/>
-      <c r="BF6" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>151</v>
-      </c>
+      <c r="BF6"/>
+      <c r="BG6"/>
+      <c r="BH6"/>
       <c r="BI6"/>
       <c r="BJ6"/>
       <c r="BK6"/>
       <c r="BL6"/>
-      <c r="BM6" t="s">
-        <v>152</v>
-      </c>
+      <c r="BM6"/>
       <c r="BN6">
-        <v>682030</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BO6"/>
       <c r="BP6"/>
       <c r="BQ6"/>
       <c r="BR6"/>
-      <c r="BS6" t="s">
-        <v>153</v>
-      </c>
+      <c r="BS6"/>
       <c r="BT6"/>
       <c r="BU6"/>
       <c r="BV6"/>
       <c r="BW6"/>
       <c r="BX6"/>
       <c r="BY6"/>
-      <c r="BZ6" t="s">
-        <v>103</v>
-      </c>
+      <c r="BZ6"/>
     </row>
     <row r="7" spans="1:78">
       <c r="A7">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="B7">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
         <v>104</v>
       </c>
       <c r="D7">
-        <v>6666666666</v>
+        <v>8798998980</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>143</v>
-      </c>
+      <c r="G7"/>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
@@ -1877,21 +1729,15 @@
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
-      <c r="X7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y7">
-        <v>2023</v>
-      </c>
+      <c r="X7"/>
+      <c r="Y7"/>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>156</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="AB7"/>
       <c r="AC7">
         <v>0</v>
       </c>
@@ -1920,92 +1766,72 @@
       </c>
       <c r="AU7"/>
       <c r="AV7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AW7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AX7"/>
-      <c r="AY7">
-        <v>0</v>
-      </c>
+      <c r="AY7"/>
       <c r="AZ7"/>
       <c r="BA7"/>
       <c r="BB7"/>
-      <c r="BC7" t="s">
-        <v>148</v>
-      </c>
+      <c r="BC7"/>
       <c r="BD7"/>
       <c r="BE7"/>
-      <c r="BF7" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>150</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>151</v>
-      </c>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
       <c r="BI7"/>
       <c r="BJ7"/>
       <c r="BK7"/>
       <c r="BL7"/>
-      <c r="BM7" t="s">
-        <v>152</v>
-      </c>
+      <c r="BM7"/>
       <c r="BN7">
-        <v>682030</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BO7"/>
       <c r="BP7"/>
       <c r="BQ7"/>
       <c r="BR7"/>
-      <c r="BS7" t="s">
-        <v>153</v>
-      </c>
+      <c r="BS7"/>
       <c r="BT7"/>
       <c r="BU7"/>
       <c r="BV7"/>
       <c r="BW7"/>
       <c r="BX7"/>
       <c r="BY7"/>
-      <c r="BZ7" t="s">
-        <v>103</v>
-      </c>
+      <c r="BZ7"/>
     </row>
     <row r="8" spans="1:78">
       <c r="A8">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="B8">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="D8">
-        <v>8333333333</v>
+        <v>9809980989</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>143</v>
-      </c>
+      <c r="G8"/>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -2017,21 +1843,15 @@
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
-      <c r="X8" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y8">
-        <v>2023</v>
-      </c>
+      <c r="X8"/>
+      <c r="Y8"/>
       <c r="Z8">
         <v>1</v>
       </c>
       <c r="AA8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>160</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="AB8"/>
       <c r="AC8">
         <v>0</v>
       </c>
@@ -2060,60 +1880,1902 @@
       </c>
       <c r="AU8"/>
       <c r="AV8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AX8"/>
-      <c r="AY8">
-        <v>0</v>
-      </c>
+      <c r="AY8"/>
       <c r="AZ8"/>
       <c r="BA8"/>
       <c r="BB8"/>
-      <c r="BC8" t="s">
-        <v>148</v>
-      </c>
+      <c r="BC8"/>
       <c r="BD8"/>
       <c r="BE8"/>
-      <c r="BF8" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>151</v>
-      </c>
+      <c r="BF8"/>
+      <c r="BG8"/>
+      <c r="BH8"/>
       <c r="BI8"/>
       <c r="BJ8"/>
       <c r="BK8"/>
       <c r="BL8"/>
-      <c r="BM8" t="s">
-        <v>152</v>
-      </c>
+      <c r="BM8"/>
       <c r="BN8">
-        <v>682030</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BO8"/>
       <c r="BP8"/>
       <c r="BQ8"/>
       <c r="BR8"/>
-      <c r="BS8" t="s">
-        <v>153</v>
-      </c>
+      <c r="BS8"/>
       <c r="BT8"/>
       <c r="BU8"/>
       <c r="BV8"/>
       <c r="BW8"/>
       <c r="BX8"/>
       <c r="BY8"/>
-      <c r="BZ8" t="s">
-        <v>103</v>
-      </c>
+      <c r="BZ8"/>
+    </row>
+    <row r="9" spans="1:78">
+      <c r="A9">
+        <v>228</v>
+      </c>
+      <c r="B9">
+        <v>331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9">
+        <v>9876980990</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB9"/>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9"/>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9"/>
+      <c r="AV9">
+        <v>25</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9"/>
+      <c r="BP9"/>
+      <c r="BQ9"/>
+      <c r="BR9"/>
+      <c r="BS9"/>
+      <c r="BT9"/>
+      <c r="BU9"/>
+      <c r="BV9"/>
+      <c r="BW9"/>
+      <c r="BX9"/>
+      <c r="BY9"/>
+      <c r="BZ9"/>
+    </row>
+    <row r="10" spans="1:78">
+      <c r="A10">
+        <v>229</v>
+      </c>
+      <c r="B10">
+        <v>333</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10">
+        <v>9821899198</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB10"/>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10"/>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10"/>
+      <c r="AV10">
+        <v>25</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10"/>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10"/>
+      <c r="BP10"/>
+      <c r="BQ10"/>
+      <c r="BR10"/>
+      <c r="BS10"/>
+      <c r="BT10"/>
+      <c r="BU10"/>
+      <c r="BV10"/>
+      <c r="BW10"/>
+      <c r="BX10"/>
+      <c r="BY10"/>
+      <c r="BZ10"/>
+    </row>
+    <row r="11" spans="1:78">
+      <c r="A11">
+        <v>230</v>
+      </c>
+      <c r="B11">
+        <v>334</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>8923893298</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB11"/>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11"/>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11"/>
+      <c r="AV11">
+        <v>25</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11"/>
+      <c r="BP11"/>
+      <c r="BQ11"/>
+      <c r="BR11"/>
+      <c r="BS11"/>
+      <c r="BT11"/>
+      <c r="BU11"/>
+      <c r="BV11"/>
+      <c r="BW11"/>
+      <c r="BX11"/>
+      <c r="BY11"/>
+      <c r="BZ11"/>
+    </row>
+    <row r="12" spans="1:78">
+      <c r="A12">
+        <v>231</v>
+      </c>
+      <c r="B12">
+        <v>336</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
+        <v>8921099809</v>
+      </c>
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB12"/>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12"/>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12"/>
+      <c r="AV12">
+        <v>25</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12"/>
+      <c r="BP12"/>
+      <c r="BQ12"/>
+      <c r="BR12"/>
+      <c r="BS12"/>
+      <c r="BT12"/>
+      <c r="BU12"/>
+      <c r="BV12"/>
+      <c r="BW12"/>
+      <c r="BX12"/>
+      <c r="BY12"/>
+      <c r="BZ12"/>
+    </row>
+    <row r="13" spans="1:78">
+      <c r="A13">
+        <v>232</v>
+      </c>
+      <c r="B13">
+        <v>337</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13">
+        <v>9087902309</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB13"/>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13"/>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13"/>
+      <c r="AV13">
+        <v>25</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13"/>
+      <c r="BP13"/>
+      <c r="BQ13"/>
+      <c r="BR13"/>
+      <c r="BS13"/>
+      <c r="BT13"/>
+      <c r="BU13"/>
+      <c r="BV13"/>
+      <c r="BW13"/>
+      <c r="BX13"/>
+      <c r="BY13"/>
+      <c r="BZ13"/>
+    </row>
+    <row r="14" spans="1:78">
+      <c r="A14">
+        <v>233</v>
+      </c>
+      <c r="B14">
+        <v>338</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14">
+        <v>8932093209</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB14"/>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14"/>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14"/>
+      <c r="AV14">
+        <v>25</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14"/>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14"/>
+      <c r="BP14"/>
+      <c r="BQ14"/>
+      <c r="BR14"/>
+      <c r="BS14"/>
+      <c r="BT14"/>
+      <c r="BU14"/>
+      <c r="BV14"/>
+      <c r="BW14"/>
+      <c r="BX14"/>
+      <c r="BY14"/>
+      <c r="BZ14"/>
+    </row>
+    <row r="15" spans="1:78">
+      <c r="A15">
+        <v>234</v>
+      </c>
+      <c r="B15">
+        <v>343</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15">
+        <v>8723982398</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB15"/>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15"/>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15"/>
+      <c r="AV15">
+        <v>25</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+      <c r="BE15"/>
+      <c r="BF15"/>
+      <c r="BG15"/>
+      <c r="BH15"/>
+      <c r="BI15"/>
+      <c r="BJ15"/>
+      <c r="BK15"/>
+      <c r="BL15"/>
+      <c r="BM15"/>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15"/>
+      <c r="BP15"/>
+      <c r="BQ15"/>
+      <c r="BR15"/>
+      <c r="BS15"/>
+      <c r="BT15"/>
+      <c r="BU15"/>
+      <c r="BV15"/>
+      <c r="BW15"/>
+      <c r="BX15"/>
+      <c r="BY15"/>
+      <c r="BZ15"/>
+    </row>
+    <row r="16" spans="1:78">
+      <c r="A16">
+        <v>235</v>
+      </c>
+      <c r="B16">
+        <v>346</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16">
+        <v>9023093232</v>
+      </c>
+      <c r="E16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16"/>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16"/>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+      <c r="BE16"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
+      <c r="BH16"/>
+      <c r="BI16"/>
+      <c r="BJ16"/>
+      <c r="BK16"/>
+      <c r="BL16"/>
+      <c r="BM16"/>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16"/>
+      <c r="BP16"/>
+      <c r="BQ16"/>
+      <c r="BR16"/>
+      <c r="BS16"/>
+      <c r="BT16"/>
+      <c r="BU16"/>
+      <c r="BV16"/>
+      <c r="BW16"/>
+      <c r="BX16"/>
+      <c r="BY16"/>
+      <c r="BZ16"/>
+    </row>
+    <row r="17" spans="1:78">
+      <c r="A17">
+        <v>236</v>
+      </c>
+      <c r="B17">
+        <v>348</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17">
+        <v>34343243242434240</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17"/>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17"/>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+    </row>
+    <row r="18" spans="1:78">
+      <c r="A18">
+        <v>237</v>
+      </c>
+      <c r="B18">
+        <v>349</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18">
+        <v>9090909090</v>
+      </c>
+      <c r="E18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18"/>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18"/>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18"/>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18"/>
+      <c r="BP18"/>
+      <c r="BQ18"/>
+      <c r="BR18"/>
+      <c r="BS18"/>
+      <c r="BT18"/>
+      <c r="BU18"/>
+      <c r="BV18"/>
+      <c r="BW18"/>
+      <c r="BX18"/>
+      <c r="BY18"/>
+      <c r="BZ18"/>
+    </row>
+    <row r="19" spans="1:78">
+      <c r="A19">
+        <v>238</v>
+      </c>
+      <c r="B19">
+        <v>352</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19">
+        <v>9898980998</v>
+      </c>
+      <c r="E19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19">
+        <v>13</v>
+      </c>
+      <c r="P19" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19"/>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19"/>
+      <c r="W19" t="s">
+        <v>149</v>
+      </c>
+      <c r="X19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y19">
+        <v>2015</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB19"/>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19"/>
+      <c r="AS19">
+        <v>121233</v>
+      </c>
+      <c r="AT19">
+        <v>122132</v>
+      </c>
+      <c r="AU19"/>
+      <c r="AV19">
+        <v>25</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+      <c r="BL19"/>
+      <c r="BM19"/>
+      <c r="BN19">
+        <v>600042</v>
+      </c>
+      <c r="BO19"/>
+      <c r="BP19"/>
+      <c r="BQ19"/>
+      <c r="BR19"/>
+      <c r="BS19"/>
+      <c r="BT19"/>
+      <c r="BU19"/>
+      <c r="BV19"/>
+      <c r="BW19"/>
+      <c r="BX19"/>
+      <c r="BY19"/>
+      <c r="BZ19"/>
+    </row>
+    <row r="20" spans="1:78">
+      <c r="A20">
+        <v>239</v>
+      </c>
+      <c r="B20">
+        <v>353</v>
+      </c>
+      <c r="C20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20">
+        <v>9809890998</v>
+      </c>
+      <c r="E20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB20"/>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20"/>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20"/>
+      <c r="AV20">
+        <v>25</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20"/>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20"/>
+      <c r="BP20"/>
+      <c r="BQ20"/>
+      <c r="BR20"/>
+      <c r="BS20"/>
+      <c r="BT20"/>
+      <c r="BU20"/>
+      <c r="BV20"/>
+      <c r="BW20"/>
+      <c r="BX20"/>
+      <c r="BY20"/>
+      <c r="BZ20"/>
+    </row>
+    <row r="21" spans="1:78">
+      <c r="A21">
+        <v>240</v>
+      </c>
+      <c r="B21">
+        <v>354</v>
+      </c>
+      <c r="C21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21">
+        <v>6098212198</v>
+      </c>
+      <c r="E21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21"/>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21"/>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+      <c r="BK21"/>
+      <c r="BL21"/>
+      <c r="BM21"/>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21"/>
+      <c r="BP21"/>
+      <c r="BQ21"/>
+      <c r="BR21"/>
+      <c r="BS21"/>
+      <c r="BT21"/>
+      <c r="BU21"/>
+      <c r="BV21"/>
+      <c r="BW21"/>
+      <c r="BX21"/>
+      <c r="BY21"/>
+      <c r="BZ21"/>
+    </row>
+    <row r="22" spans="1:78">
+      <c r="A22">
+        <v>241</v>
+      </c>
+      <c r="B22">
+        <v>355</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22">
+        <v>8220102903</v>
+      </c>
+      <c r="E22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22"/>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22"/>
+      <c r="AV22">
+        <v>25</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
+      <c r="BH22"/>
+      <c r="BI22"/>
+      <c r="BJ22"/>
+      <c r="BK22"/>
+      <c r="BL22"/>
+      <c r="BM22"/>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22"/>
+      <c r="BP22"/>
+      <c r="BQ22"/>
+      <c r="BR22"/>
+      <c r="BS22"/>
+      <c r="BT22"/>
+      <c r="BU22"/>
+      <c r="BV22"/>
+      <c r="BW22"/>
+      <c r="BX22"/>
+      <c r="BY22"/>
+      <c r="BZ22"/>
+    </row>
+    <row r="23" spans="1:78">
+      <c r="A23">
+        <v>242</v>
+      </c>
+      <c r="B23">
+        <v>356</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23">
+        <v>9809329839</v>
+      </c>
+      <c r="E23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23">
+        <v>8</v>
+      </c>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC23">
+        <v>3</v>
+      </c>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23"/>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23"/>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
+      <c r="BH23"/>
+      <c r="BI23"/>
+      <c r="BJ23"/>
+      <c r="BK23"/>
+      <c r="BL23"/>
+      <c r="BM23"/>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23"/>
+      <c r="BP23"/>
+      <c r="BQ23"/>
+      <c r="BR23"/>
+      <c r="BS23"/>
+      <c r="BT23"/>
+      <c r="BU23"/>
+      <c r="BV23"/>
+      <c r="BW23"/>
+      <c r="BX23"/>
+      <c r="BY23"/>
+      <c r="BZ23"/>
+    </row>
+    <row r="24" spans="1:78">
+      <c r="A24">
+        <v>244</v>
+      </c>
+      <c r="B24">
+        <v>358</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24">
+        <v>9834933989</v>
+      </c>
+      <c r="E24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24"/>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24"/>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+      <c r="BK24"/>
+      <c r="BL24"/>
+      <c r="BM24"/>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24"/>
+      <c r="BP24"/>
+      <c r="BQ24"/>
+      <c r="BR24"/>
+      <c r="BS24"/>
+      <c r="BT24"/>
+      <c r="BU24"/>
+      <c r="BV24"/>
+      <c r="BW24"/>
+      <c r="BX24"/>
+      <c r="BY24"/>
+      <c r="BZ24"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
